--- a/mathTransformed/HMPSTT_(2015-07-01)_47_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-07-01)_47_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -484,6 +489,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>M G M High School GundarlahallyPavagada</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -511,6 +521,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G H S BukkapatnaKoratagere</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -538,6 +553,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>M G M Girls</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>High School Madhugiri</t>
         </is>
       </c>
@@ -565,6 +585,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>G H S DasarahallyKoratagere</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -592,6 +617,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Govt. High School GodrahallyKoratagere</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -619,6 +649,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>J H S PathaganahallyKoratagere</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -646,6 +681,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>G P U CollegeThirumaniPavagada</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -673,6 +713,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>G P U CollegeVenkatapuraPavagada</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -700,6 +745,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>G H S Kurubararamana HalliSira</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -727,6 +777,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G H S GonihalliSira</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -754,6 +809,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Sree Maruthi Rural High SchoolKabbigereKoratagere</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -781,6 +841,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>S A R High SchoolBaraguruSira</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -808,6 +873,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Govt. JuniorCollege (High School Sec) Byalya</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -835,6 +905,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>Sree Gajanana Rural High School ShanthepeteSira</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -862,6 +937,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>G H S NarayanapuragateSira</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -889,6 +969,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>ViswabharathiHigh SchoolYelkur</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -916,6 +1001,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G H S KotaguddaPavagada</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -943,6 +1033,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>S B C J CollegeKolalaKoratagere</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -970,6 +1065,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>S G P U CollegeThovinakereKoratagere</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -996,7 +1096,8 @@
           <t>RAJASHEKARA N T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>Madhugiri</t>
         </is>
@@ -1025,6 +1126,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G H S BevinahallySira</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Madhugiri.</t>
         </is>
       </c>
@@ -1052,6 +1158,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>G H S GowdetiPavagada</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1079,6 +1190,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G H S KrishnapuraPavagada</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1103,7 +1219,8 @@
           <t>RAVISHANKARA K L</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t xml:space="preserve">RAVISHANKARA K </t>
         </is>
@@ -1121,6 +1238,11 @@
         </is>
       </c>
       <c r="F27" t="inlineStr">
+        <is>
+          <t>S R H S B Cross</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>Madhugiri</t>
         </is>
@@ -1149,6 +1271,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G C P U P N hallySira</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Madhuigiri</t>
         </is>
       </c>
@@ -1176,6 +1303,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Priyadarshani High SchoolY N HosakotePavagada</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1203,6 +1335,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G J C (High School Section) Koratagere</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1230,6 +1367,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>M G M High School ArasikerePavagada</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1257,6 +1399,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>G H SChangavaraSira</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1284,6 +1431,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>G H SHolavanahalliKoratagere</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1311,6 +1463,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>Govt. Adarsha VidyalayaPavagada</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1338,6 +1495,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>S V V High SchoolHuildoreSira</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1365,6 +1527,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>G J C Byalya</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1392,6 +1559,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>G J C (H S ) Puravara</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1419,6 +1591,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>G H S NagalamadikePavagada</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1448,6 +1625,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>St. Josephs ConventGirls High SchoolFrazer Town</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Bangalore – 04</t>
         </is>
       </c>
@@ -1475,6 +1657,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>Sree sangamanaKannada High SchoolNew Byappanahally</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Bangalore North Range -3</t>
         </is>
       </c>
@@ -1500,7 +1687,8 @@
           <t>LOKESHA S R</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>G H S Coxtown Bangalore North - 0</t>
         </is>
@@ -1529,6 +1717,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>N K S High SchoolMajestic</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Bangalore North- 0</t>
         </is>
       </c>
@@ -1558,6 +1751,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>G H S Hegganahalli</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Bangalore North – 1 Bangalore - 9</t>
         </is>
       </c>
@@ -1585,6 +1783,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>BEL High School Jalahalli</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Bangalore North- 1</t>
         </is>
       </c>
@@ -1612,6 +1815,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>M S Ramaiah High SchoolGokulaBangalore North 02</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Bangalore -5</t>
         </is>
       </c>
@@ -1639,6 +1847,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>Govt. High School Indian Institute of Science</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Bangalore North- 1</t>
         </is>
       </c>
@@ -1666,6 +1879,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>G H S Hullegowdanahalli</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Bangalore North-</t>
         </is>
       </c>
@@ -1693,6 +1911,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>G H SSampangiramnagaraNorth Range-3</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Bangalore North – 56002</t>
         </is>
       </c>
@@ -1720,6 +1943,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>G H S JuganahalliRajaji Nagar</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Bangalor</t>
         </is>
       </c>
@@ -1735,7 +1963,8 @@
           <t>North – 1 Bangalore.</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>North – 1 Bangalore</t>
         </is>
@@ -1764,7 +1993,8 @@
           <t>MAHESH K M</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>Sevaashram High School Srirampuram Bangalore -2</t>
         </is>

--- a/mathTransformed/HMPSTT_(2015-07-01)_47_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-07-01)_47_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,7 +494,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>High School Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -910,7 +910,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1096,10 +1096,9 @@
           <t>RAJASHEKARA N T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1130,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Madhugiri.</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1162,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1194,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1218,6 @@
           <t>RAVISHANKARA K L</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
           <t xml:space="preserve">RAVISHANKARA K </t>
@@ -1244,7 +1242,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1274,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Madhuigiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1306,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1338,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1370,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1402,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1434,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1466,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1498,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1530,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1562,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1594,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1660,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Bangalore North Range -3</t>
+          <t>Bengaluru (Bangalore) Rural</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1685,6 @@
           <t>LOKESHA S R</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
           <t>G H S Coxtown Bangalore North - 0</t>
@@ -1948,7 +1945,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Bangalor</t>
+          <t>Bengaluru (Bangalore) Urban</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1960,6 @@
           <t>North – 1 Bangalore.</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
           <t>North – 1 Bangalore</t>
@@ -1993,7 +1989,6 @@
           <t>MAHESH K M</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
           <t>Sevaashram High School Srirampuram Bangalore -2</t>

--- a/mathTransformed/HMPSTT_(2015-07-01)_47_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-07-01)_47_3.xlsx
@@ -1817,7 +1817,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Bangalore -5</t>
+          <t>Bengaluru (Bangalore) Rural</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Sevaashram High School Srirampuram Bangalore -2</t>
+          <t>Bengaluru (Bangalore) Urban</t>
         </is>
       </c>
     </row>
